--- a/.github/dataset.xlsx
+++ b/.github/dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\Leerlijn-Content-SE\.github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim-my.sharepoint.com/personal/s1186586_student_windesheim_nl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B091C-0982-44B4-B3E5-6559700314ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{3C962057-FF69-4D25-9ED5-06F02061E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8AFC52C-A4AE-4AF0-A4A9-32A59FABAF8C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="68">
   <si>
     <t>TC-1</t>
   </si>
@@ -248,13 +248,145 @@
   </si>
   <si>
     <t>bg-24</t>
+  </si>
+  <si>
+    <t>ib-19</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Implementatieproces</t>
+  </si>
+  <si>
+    <t>Bouwen softwaresysteem</t>
+  </si>
+  <si>
+    <t>X,X,3</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Beslissingen-Switch</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Beslissingen-If-Else</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-For</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-While</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Recursie</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Resources-Using</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Async</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Await</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
+  </si>
+  <si>
+    <t>Datatype-Declaratie</t>
+  </si>
+  <si>
+    <t>Datatype-Initialisatie</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Integer</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Float</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Double</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Boolean</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Char</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Byte</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Long</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Uint</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Ulong</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-String</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Array</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Tupel</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-List</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Set</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Dictionary</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Queue</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Hashset</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Stack</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Delegate</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Linkedlist</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Classes</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Objecten</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Struct</t>
+  </si>
+  <si>
+    <t>Datatype-Speciaal-Enum</t>
+  </si>
+  <si>
+    <t>Datatype-Speciaal-Null</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-PriorityQueue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +426,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -331,11 +468,50 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -611,30 +787,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -671,21 +823,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}" name="Tabel2" displayName="Tabel2" ref="A1:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K9" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}" name="Tabel2" displayName="Tabel2" ref="A1:K79" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K79" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D98D41C3-8015-4EA7-BF6D-4A53D6CC7A63}" name="Id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C2048035-7C11-4C5B-93E8-1CC38E3824E1}" name="TC-1" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{BEFA9678-E30B-4AEE-86B6-3AF2F1951903}" name="TC-2" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{5098E29B-24E5-42EC-B175-F3CECC42E982}" name="Proces" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{ED733C42-F381-402D-918D-20F3E280C3DE}" name="Processtap" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{80BBAE72-BC79-4D30-A5B9-2E11B5164EB4}" name="Onderwerp" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{62B46BF6-6E42-4DB3-9F5E-7CBE125DB527}" name="PS" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B4E9079B-3555-45EF-91DF-A89C007F74C5}" name="LT" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{1D6BCF87-36BA-4669-8AB6-ED352B1C7BE5}" name="OI" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{95C9E79B-8C56-4D38-B4A5-5B1ECC3913D7}" name="PI" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{BFC1AD25-1870-4B56-B283-789163CD3ED4}" name="DT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D98D41C3-8015-4EA7-BF6D-4A53D6CC7A63}" name="Id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C2048035-7C11-4C5B-93E8-1CC38E3824E1}" name="TC-1" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{BEFA9678-E30B-4AEE-86B6-3AF2F1951903}" name="TC-2" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{5098E29B-24E5-42EC-B175-F3CECC42E982}" name="Proces" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{ED733C42-F381-402D-918D-20F3E280C3DE}" name="Processtap" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{80BBAE72-BC79-4D30-A5B9-2E11B5164EB4}" name="Onderwerp" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{62B46BF6-6E42-4DB3-9F5E-7CBE125DB527}" name="PS" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B4E9079B-3555-45EF-91DF-A89C007F74C5}" name="LT" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1D6BCF87-36BA-4669-8AB6-ED352B1C7BE5}" name="OI" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{95C9E79B-8C56-4D38-B4A5-5B1ECC3913D7}" name="PI" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{BFC1AD25-1870-4B56-B283-789163CD3ED4}" name="DT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1008,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,12 +1176,12 @@
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1060,7 +1216,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1093,7 +1249,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="17">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1126,7 +1283,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="17">
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1159,7 +1317,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="17">
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1192,7 +1351,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="17">
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1225,7 +1385,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="17">
+        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1258,7 +1419,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="17">
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1291,7 +1453,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="17">
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1322,6 +1485,1735 @@
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <f>A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <f>A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <f>A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <f>A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <f>A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <f>A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <f>A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <f>A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <f>A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <f>A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <f>A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <f>A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <f>A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <f>A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <f>A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <f>A41+1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <f>A42+1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <f>A43+1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <f>A44+1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <f>A45+1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <f>A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <f t="shared" ref="A48:A72" si="0">A47+1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="13"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="13"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1602,16 +3494,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="07e6453a-b0b0-4b68-a1c4-ea15f373f18b"/>
     <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/.github/dataset.xlsx
+++ b/.github/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\Leerlijn-Content-SE\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B091C-0982-44B4-B3E5-6559700314ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A142BD97-FBD8-430C-9CCE-D5E80A701124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -171,12 +171,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{1B947867-2D9A-4277-B71C-1E0D3E7012E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martijn Schuman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Deeltaak
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="78">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>TC-1</t>
   </si>
@@ -190,6 +218,9 @@
     <t>Processtap</t>
   </si>
   <si>
+    <t>Onderwerp</t>
+  </si>
+  <si>
     <t>PS</t>
   </si>
   <si>
@@ -205,10 +236,10 @@
     <t>DT</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Onderwerp</t>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>bg-24</t>
   </si>
   <si>
     <t>X,2,3</t>
@@ -217,12 +248,18 @@
     <t>Beheerproces</t>
   </si>
   <si>
+    <t>Gebruiken beheersysteem</t>
+  </si>
+  <si>
     <t>Git-Repositories</t>
   </si>
   <si>
     <t>X,X,X</t>
   </si>
   <si>
+    <t>Teun</t>
+  </si>
+  <si>
     <t>Git-Branches</t>
   </si>
   <si>
@@ -244,17 +281,167 @@
     <t>Git-Tags-en-releases</t>
   </si>
   <si>
-    <t>Gebruiken beheersysteem</t>
-  </si>
-  <si>
-    <t>bg-24</t>
+    <t>ib-19</t>
+  </si>
+  <si>
+    <t>Implementatieproces</t>
+  </si>
+  <si>
+    <t>Bouwen softwaresysteem</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Beslissingen-If-Else</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Beslissingen-Switch</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-For</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-While</t>
+  </si>
+  <si>
+    <t>X,X,3</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Recursie</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Resources-Using</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Async</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Await</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
+  </si>
+  <si>
+    <t>Datatype-Declaratie</t>
+  </si>
+  <si>
+    <t>Datatype-Initialisatie</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Integer</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Float</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Double</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Boolean</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Char</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Byte</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Long</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Uint</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Ulong</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-String</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Array</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Tupel</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-List</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Set</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Dictionary</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Queue</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Hashset</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Stack</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Delegate</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Linkedlist</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-PriorityQueue</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Classes</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Objecten</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Struct</t>
+  </si>
+  <si>
+    <t>Datatype-Speciaal-Enum</t>
+  </si>
+  <si>
+    <t>Datatype-Speciaal-Null</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>Martijn</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Jorrick</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Git-Pull-requests</t>
+  </si>
+  <si>
+    <t>Git-Mergen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +481,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -331,11 +529,53 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -599,7 +839,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -608,6 +847,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -671,21 +911,26 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}" name="Tabel2" displayName="Tabel2" ref="A1:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K9" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D98D41C3-8015-4EA7-BF6D-4A53D6CC7A63}" name="Id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C2048035-7C11-4C5B-93E8-1CC38E3824E1}" name="TC-1" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{BEFA9678-E30B-4AEE-86B6-3AF2F1951903}" name="TC-2" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{5098E29B-24E5-42EC-B175-F3CECC42E982}" name="Proces" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{ED733C42-F381-402D-918D-20F3E280C3DE}" name="Processtap" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{80BBAE72-BC79-4D30-A5B9-2E11B5164EB4}" name="Onderwerp" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{62B46BF6-6E42-4DB3-9F5E-7CBE125DB527}" name="PS" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B4E9079B-3555-45EF-91DF-A89C007F74C5}" name="LT" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{1D6BCF87-36BA-4669-8AB6-ED352B1C7BE5}" name="OI" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{95C9E79B-8C56-4D38-B4A5-5B1ECC3913D7}" name="PI" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{BFC1AD25-1870-4B56-B283-789163CD3ED4}" name="DT" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}" name="Tabel2" displayName="Tabel2" ref="A1:L81" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L81" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{D98D41C3-8015-4EA7-BF6D-4A53D6CC7A63}" name="Id" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C2048035-7C11-4C5B-93E8-1CC38E3824E1}" name="TC-1" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{BEFA9678-E30B-4AEE-86B6-3AF2F1951903}" name="TC-2" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{5098E29B-24E5-42EC-B175-F3CECC42E982}" name="Proces" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{ED733C42-F381-402D-918D-20F3E280C3DE}" name="Processtap" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{80BBAE72-BC79-4D30-A5B9-2E11B5164EB4}" name="Onderwerp" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{62B46BF6-6E42-4DB3-9F5E-7CBE125DB527}" name="PS" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B4E9079B-3555-45EF-91DF-A89C007F74C5}" name="LT" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1D6BCF87-36BA-4669-8AB6-ED352B1C7BE5}" name="OI" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{95C9E79B-8C56-4D38-B4A5-5B1ECC3913D7}" name="PI" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{BFC1AD25-1870-4B56-B283-789163CD3ED4}" name="DT" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BDE8E68B-B6A7-48A8-A410-69D1AD16ED4D}" name="Auteur" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1008,320 +1253,2307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="8"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <f t="shared" ref="A3:A49" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <f t="shared" ref="A50" si="1">A49+1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1335,6 +3567,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024E8534569C8FA44AE5F5EBC97EFEAA8" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d695ec6d7b40be9c5b2370d54097476b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="068e21ff-abb5-4f24-b250-2e5527a1183d" xmlns:ns4="07e6453a-b0b0-4b68-a1c4-ea15f373f18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e208f20a2d8b16e5370b6ebced3a5882" ns3:_="" ns4:_="">
     <xsd:import namespace="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
@@ -1555,15 +3796,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1573,6 +3805,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A873F2F7-6FE2-40E9-A4A3-51526AA0CDAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1591,26 +3831,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="07e6453a-b0b0-4b68-a1c4-ea15f373f18b"/>
-    <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/.github/dataset.xlsx
+++ b/.github/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\Leerlijn-Content-SE\.github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim-my.sharepoint.com/personal/s1186586_student_windesheim_nl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B091C-0982-44B4-B3E5-6559700314ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{3C962057-FF69-4D25-9ED5-06F02061E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A24E2EE2-E080-491C-A6D7-E5099105EEF3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
@@ -171,12 +171,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{1B947867-2D9A-4277-B71C-1E0D3E7012E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martijn Schuman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Deeltaak
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="78">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>TC-1</t>
   </si>
@@ -190,6 +218,9 @@
     <t>Processtap</t>
   </si>
   <si>
+    <t>Onderwerp</t>
+  </si>
+  <si>
     <t>PS</t>
   </si>
   <si>
@@ -205,10 +236,10 @@
     <t>DT</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Onderwerp</t>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>bg-24</t>
   </si>
   <si>
     <t>X,2,3</t>
@@ -217,18 +248,30 @@
     <t>Beheerproces</t>
   </si>
   <si>
+    <t>Gebruiken beheersysteem</t>
+  </si>
+  <si>
     <t>Git-Repositories</t>
   </si>
   <si>
     <t>X,X,X</t>
   </si>
   <si>
+    <t>Teun</t>
+  </si>
+  <si>
     <t>Git-Branches</t>
   </si>
   <si>
     <t>Git-Commits</t>
   </si>
   <si>
+    <t>Git-Pull-requests</t>
+  </si>
+  <si>
+    <t>Git-Mergen</t>
+  </si>
+  <si>
     <t>Git-Github</t>
   </si>
   <si>
@@ -244,17 +287,161 @@
     <t>Git-Tags-en-releases</t>
   </si>
   <si>
-    <t>Gebruiken beheersysteem</t>
-  </si>
-  <si>
-    <t>bg-24</t>
+    <t>ib-19</t>
+  </si>
+  <si>
+    <t>Implementatieproces</t>
+  </si>
+  <si>
+    <t>Bouwen softwaresysteem</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Beslissingen-If-Else</t>
+  </si>
+  <si>
+    <t>Martijn</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Beslissingen-Switch</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-For</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-While</t>
+  </si>
+  <si>
+    <t>Jorrick</t>
+  </si>
+  <si>
+    <t>X,X,3</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Recursie</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Resources-Using</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Async</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Await</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
+  </si>
+  <si>
+    <t>Datatype-Declaratie</t>
+  </si>
+  <si>
+    <t>Datatype-Initialisatie</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Integer</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Float</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Double</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Boolean</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Char</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Byte</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Long</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Uint</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Ulong</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-String</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Array</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Tupel</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-List</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Set</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Dictionary</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Queue</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Hashset</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Stack</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Delegate</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Linkedlist</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-PriorityQueue</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Classes</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Objecten</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Struct</t>
+  </si>
+  <si>
+    <t>Datatype-Speciaal-Enum</t>
+  </si>
+  <si>
+    <t>Datatype-Speciaal-Null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +481,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -331,11 +529,53 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -599,7 +839,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -608,6 +847,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -672,20 +912,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}" name="Tabel2" displayName="Tabel2" ref="A1:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K9" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D98D41C3-8015-4EA7-BF6D-4A53D6CC7A63}" name="Id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C2048035-7C11-4C5B-93E8-1CC38E3824E1}" name="TC-1" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{BEFA9678-E30B-4AEE-86B6-3AF2F1951903}" name="TC-2" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{5098E29B-24E5-42EC-B175-F3CECC42E982}" name="Proces" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{ED733C42-F381-402D-918D-20F3E280C3DE}" name="Processtap" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{80BBAE72-BC79-4D30-A5B9-2E11B5164EB4}" name="Onderwerp" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{62B46BF6-6E42-4DB3-9F5E-7CBE125DB527}" name="PS" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B4E9079B-3555-45EF-91DF-A89C007F74C5}" name="LT" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{1D6BCF87-36BA-4669-8AB6-ED352B1C7BE5}" name="OI" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{95C9E79B-8C56-4D38-B4A5-5B1ECC3913D7}" name="PI" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{BFC1AD25-1870-4B56-B283-789163CD3ED4}" name="DT" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}" name="Tabel2" displayName="Tabel2" ref="A1:L81" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L81" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{D98D41C3-8015-4EA7-BF6D-4A53D6CC7A63}" name="Id" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C2048035-7C11-4C5B-93E8-1CC38E3824E1}" name="TC-1" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{BEFA9678-E30B-4AEE-86B6-3AF2F1951903}" name="TC-2" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{5098E29B-24E5-42EC-B175-F3CECC42E982}" name="Proces" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{ED733C42-F381-402D-918D-20F3E280C3DE}" name="Processtap" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{80BBAE72-BC79-4D30-A5B9-2E11B5164EB4}" name="Onderwerp" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{62B46BF6-6E42-4DB3-9F5E-7CBE125DB527}" name="PS" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B4E9079B-3555-45EF-91DF-A89C007F74C5}" name="LT" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1D6BCF87-36BA-4669-8AB6-ED352B1C7BE5}" name="OI" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{95C9E79B-8C56-4D38-B4A5-5B1ECC3913D7}" name="PI" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{BFC1AD25-1870-4B56-B283-789163CD3ED4}" name="DT" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BDE8E68B-B6A7-48A8-A410-69D1AD16ED4D}" name="Auteur" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1008,320 +1249,2306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="8"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="11">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="11">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="11">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11">
+        <f>A11+1</f>
         <v>11</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="11">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="11">
+        <f>A14+1</f>
         <v>14</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="11">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="11">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11">
+        <f>A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11">
+        <f>A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11">
+        <f>A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11">
+        <f>A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11">
+        <f>A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="11">
+        <f>A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="11">
+        <f>A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="11">
+        <f>A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="11">
+        <f>A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="11">
+        <f>A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="11">
+        <f>A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="11">
+        <f>A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="11">
+        <f>A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="11">
+        <f>A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="11">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="11">
+        <f>A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="11">
+        <f>A41+1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="11">
+        <f>A42+1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="11">
+        <f>A43+1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="11">
+        <f>A44+1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="11">
+        <f>A45+1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="11">
+        <f>A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="11">
+        <f>A47+1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="11">
+        <f>A48+1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="11">
+        <f>A49+1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="11"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="11"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="11"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="11"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="11"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="11"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="11"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="11"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="11"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="13"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="11"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="13"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="13"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="11"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="13"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="11"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="13"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="11"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="13"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="11"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="13"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="11"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="13"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="11"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="13"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="11"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="13"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="11"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="11"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="13"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="11"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1573,47 +3800,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A873F2F7-6FE2-40E9-A4A3-51526AA0CDAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
-    <ds:schemaRef ds:uri="07e6453a-b0b0-4b68-a1c4-ea15f373f18b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A873F2F7-6FE2-40E9-A4A3-51526AA0CDAD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="07e6453a-b0b0-4b68-a1c4-ea15f373f18b"/>
-    <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/.github/dataset.xlsx
+++ b/.github/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\Leerlijn-Content-SE\.github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim-my.sharepoint.com/personal/s1186586_student_windesheim_nl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A142BD97-FBD8-430C-9CCE-D5E80A701124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{3C962057-FF69-4D25-9ED5-06F02061E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A24E2EE2-E080-491C-A6D7-E5099105EEF3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -266,6 +266,12 @@
     <t>Git-Commits</t>
   </si>
   <si>
+    <t>Git-Pull-requests</t>
+  </si>
+  <si>
+    <t>Git-Mergen</t>
+  </si>
+  <si>
     <t>Git-Github</t>
   </si>
   <si>
@@ -293,27 +299,48 @@
     <t>Controlestructuur-Beslissingen-If-Else</t>
   </si>
   <si>
+    <t>Martijn</t>
+  </si>
+  <si>
     <t>Controlestructuur-Beslissingen-Switch</t>
   </si>
   <si>
+    <t>Jasper</t>
+  </si>
+  <si>
     <t>Controlestructuur-Herhaling-For</t>
   </si>
   <si>
+    <t>Bas</t>
+  </si>
+  <si>
     <t>Controlestructuur-Herhaling-While</t>
   </si>
   <si>
+    <t>Jorrick</t>
+  </si>
+  <si>
     <t>X,X,3</t>
   </si>
   <si>
     <t>Controlestructuur-Herhaling-Recursie</t>
   </si>
   <si>
+    <t>Ties</t>
+  </si>
+  <si>
     <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
   </si>
   <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
     <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
   </si>
   <si>
+    <t>Stefan</t>
+  </si>
+  <si>
     <t>Controlestructuur-Resources-Using</t>
   </si>
   <si>
@@ -408,40 +435,13 @@
   </si>
   <si>
     <t>Datatype-Speciaal-Null</t>
-  </si>
-  <si>
-    <t>Bas</t>
-  </si>
-  <si>
-    <t>Martijn</t>
-  </si>
-  <si>
-    <t>Ties</t>
-  </si>
-  <si>
-    <t>Jasper</t>
-  </si>
-  <si>
-    <t>Jorrick</t>
-  </si>
-  <si>
-    <t>Jeroen</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Git-Pull-requests</t>
-  </si>
-  <si>
-    <t>Git-Mergen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,15 +539,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -911,10 +911,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}" name="Tabel2" displayName="Tabel2" ref="A1:L81" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L81" xr:uid="{6F958B9E-28DA-4DCF-8640-DE7674ACE104}"/>
@@ -1255,14 +1251,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -1271,8 +1266,8 @@
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1305,11 +1300,11 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1341,13 +1336,13 @@
       <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="11">
-        <f t="shared" ref="A3:A49" si="0">A2+1</f>
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1378,16 +1373,16 @@
       <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="11">
-        <f t="shared" si="0"/>
+        <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1415,85 +1410,85 @@
       <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="11">
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="16" t="s">
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="11">
         <f>A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="I6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="11">
         <f>A6+1</f>
         <v>6</v>
@@ -1511,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7" t="s">
@@ -1526,13 +1521,13 @@
       <c r="K7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="11">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1548,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
@@ -1563,13 +1558,13 @@
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="11">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1585,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7" t="s">
@@ -1600,13 +1595,13 @@
       <c r="K9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="11">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1622,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="7" t="s">
@@ -1637,13 +1632,13 @@
       <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="11">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1659,7 +1654,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="7" t="s">
@@ -1674,29 +1669,29 @@
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="11">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="12" t="s">
@@ -1711,29 +1706,29 @@
       <c r="K12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="11">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="12" t="s">
@@ -1748,29 +1743,29 @@
       <c r="K13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="11">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="12" t="s">
@@ -1785,29 +1780,29 @@
       <c r="K14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="11">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="12" t="s">
@@ -1822,66 +1817,66 @@
       <c r="K15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="11">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="11">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="12" t="s">
@@ -1896,29 +1891,29 @@
       <c r="K17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="11">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="12" t="s">
@@ -1933,29 +1928,29 @@
       <c r="K18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="11">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="11" t="s">
@@ -1970,29 +1965,29 @@
       <c r="K19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="11">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="11" t="s">
@@ -2007,29 +2002,29 @@
       <c r="K20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="11">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="11" t="s">
@@ -2044,29 +2039,29 @@
       <c r="K21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="11">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="12" t="s">
@@ -2081,29 +2076,29 @@
       <c r="K22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="11">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="12" t="s">
@@ -2118,29 +2113,29 @@
       <c r="K23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="11">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="12" t="s">
@@ -2155,29 +2150,29 @@
       <c r="K24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="11">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="12" t="s">
@@ -2192,29 +2187,29 @@
       <c r="K25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="11">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="12" t="s">
@@ -2229,29 +2224,29 @@
       <c r="K26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="11">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="12" t="s">
@@ -2266,29 +2261,29 @@
       <c r="K27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="11">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="12" t="s">
@@ -2303,29 +2298,29 @@
       <c r="K28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="11">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="11" t="s">
@@ -2340,29 +2335,29 @@
       <c r="K29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="11">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="11" t="s">
@@ -2377,29 +2372,29 @@
       <c r="K30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="11">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="11" t="s">
@@ -2414,29 +2409,29 @@
       <c r="K31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="11">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="11" t="s">
@@ -2451,29 +2446,29 @@
       <c r="K32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="11">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="11" t="s">
@@ -2488,29 +2483,29 @@
       <c r="K33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="11">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="12" t="s">
@@ -2525,29 +2520,29 @@
       <c r="K34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="11">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="12" t="s">
@@ -2562,29 +2557,29 @@
       <c r="K35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="11">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="11" t="s">
@@ -2599,29 +2594,29 @@
       <c r="K36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="11">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="12" t="s">
@@ -2636,29 +2631,29 @@
       <c r="K37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="11">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="11" t="s">
@@ -2673,29 +2668,29 @@
       <c r="K38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="11">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="11" t="s">
@@ -2710,29 +2705,29 @@
       <c r="K39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="11">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="11" t="s">
@@ -2747,29 +2742,29 @@
       <c r="K40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="11">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="11" t="s">
@@ -2784,29 +2779,29 @@
       <c r="K41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="11">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="11" t="s">
@@ -2821,29 +2816,29 @@
       <c r="K42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L42" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="11">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="11" t="s">
@@ -2858,103 +2853,103 @@
       <c r="K43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="11">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="11">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="11">
+        <f>A45+1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="11" t="s">
@@ -2969,29 +2964,29 @@
       <c r="K46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="11">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="11" t="s">
@@ -3006,29 +3001,29 @@
       <c r="K47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L47" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="11">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="11" t="s">
@@ -3043,29 +3038,29 @@
       <c r="K48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="11">
-        <f t="shared" si="0"/>
+        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="11" t="s">
@@ -3080,29 +3075,29 @@
       <c r="K49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="11">
-        <f t="shared" ref="A50" si="1">A49+1</f>
+        <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="11" t="s">
@@ -3117,11 +3112,11 @@
       <c r="K50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="11"/>
       <c r="B51" s="10"/>
       <c r="C51" s="9"/>
@@ -3133,9 +3128,9 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="11"/>
       <c r="B52" s="10"/>
       <c r="C52" s="9"/>
@@ -3147,9 +3142,9 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="11"/>
       <c r="B53" s="10"/>
       <c r="C53" s="9"/>
@@ -3161,9 +3156,9 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="11"/>
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
@@ -3175,9 +3170,9 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="11"/>
       <c r="B55" s="10"/>
       <c r="C55" s="9"/>
@@ -3189,9 +3184,9 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="11"/>
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
@@ -3203,9 +3198,9 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="11"/>
       <c r="B57" s="10"/>
       <c r="C57" s="9"/>
@@ -3217,9 +3212,9 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="11"/>
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
@@ -3231,9 +3226,9 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="11"/>
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
@@ -3245,9 +3240,9 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="11"/>
       <c r="B60" s="10"/>
       <c r="C60" s="9"/>
@@ -3259,9 +3254,9 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="11"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
@@ -3273,9 +3268,9 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="11"/>
       <c r="B62" s="10"/>
       <c r="C62" s="9"/>
@@ -3287,9 +3282,9 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="11"/>
       <c r="B63" s="10"/>
       <c r="C63" s="9"/>
@@ -3301,9 +3296,9 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="11"/>
       <c r="B64" s="10"/>
       <c r="C64" s="9"/>
@@ -3315,9 +3310,9 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="11"/>
       <c r="B65" s="10"/>
       <c r="C65" s="9"/>
@@ -3329,9 +3324,9 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="11"/>
       <c r="B66" s="10"/>
       <c r="C66" s="9"/>
@@ -3343,9 +3338,9 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="11"/>
       <c r="B67" s="10"/>
       <c r="C67" s="9"/>
@@ -3357,9 +3352,9 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="11"/>
       <c r="B68" s="10"/>
       <c r="C68" s="9"/>
@@ -3371,9 +3366,9 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L68" s="13"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="11"/>
       <c r="B69" s="10"/>
       <c r="C69" s="9"/>
@@ -3385,9 +3380,9 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="11"/>
       <c r="B70" s="10"/>
       <c r="C70" s="9"/>
@@ -3399,9 +3394,9 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L70" s="13"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="11"/>
       <c r="B71" s="10"/>
       <c r="C71" s="9"/>
@@ -3413,9 +3408,9 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L71" s="13"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="11"/>
       <c r="B72" s="10"/>
       <c r="C72" s="9"/>
@@ -3427,9 +3422,9 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L72" s="13"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="11"/>
       <c r="B73" s="10"/>
       <c r="C73" s="9"/>
@@ -3441,9 +3436,9 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L73" s="13"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="11"/>
       <c r="B74" s="10"/>
       <c r="C74" s="9"/>
@@ -3455,9 +3450,9 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L74" s="13"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="11"/>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -3469,9 +3464,9 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L75" s="13"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="11"/>
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
@@ -3483,9 +3478,9 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L76" s="13"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="11"/>
       <c r="B77" s="4"/>
       <c r="C77" s="2"/>
@@ -3497,9 +3492,9 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L77" s="13"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="11"/>
       <c r="B78" s="4"/>
       <c r="C78" s="2"/>
@@ -3511,9 +3506,9 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L78" s="13"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="11"/>
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
@@ -3525,9 +3520,9 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="11"/>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -3539,9 +3534,9 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L80" s="13"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="11"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
@@ -3553,7 +3548,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
+      <c r="L81" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3567,15 +3562,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024E8534569C8FA44AE5F5EBC97EFEAA8" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d695ec6d7b40be9c5b2370d54097476b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="068e21ff-abb5-4f24-b250-2e5527a1183d" xmlns:ns4="07e6453a-b0b0-4b68-a1c4-ea15f373f18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e208f20a2d8b16e5370b6ebced3a5882" ns3:_="" ns4:_="">
     <xsd:import namespace="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
@@ -3796,6 +3782,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3805,47 +3800,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A873F2F7-6FE2-40E9-A4A3-51526AA0CDAD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A873F2F7-6FE2-40E9-A4A3-51526AA0CDAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
-    <ds:schemaRef ds:uri="07e6453a-b0b0-4b68-a1c4-ea15f373f18b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="07e6453a-b0b0-4b68-a1c4-ea15f373f18b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/.github/dataset.xlsx
+++ b/.github/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim-my.sharepoint.com/personal/s1186586_student_windesheim_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{3C962057-FF69-4D25-9ED5-06F02061E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A24E2EE2-E080-491C-A6D7-E5099105EEF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B131A1-0D37-4B6E-8615-91EDFAFE3492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="79">
   <si>
     <t>Id</t>
   </si>
@@ -299,149 +299,152 @@
     <t>Controlestructuur-Beslissingen-If-Else</t>
   </si>
   <si>
+    <t>Martijn &amp; Teun</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Beslissingen-Switch</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-For</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-While</t>
+  </si>
+  <si>
+    <t>Jorrick</t>
+  </si>
+  <si>
+    <t>X,X,3</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Recursie</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Resources-Using</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Async</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Await</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
+  </si>
+  <si>
+    <t>Datatype-Declaratie</t>
+  </si>
+  <si>
+    <t>Datatype-Initialisatie</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Integer</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Float</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Double</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Boolean</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Char</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Byte</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Long</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Uint</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Ulong</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-String</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Array</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Tupel</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-List</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Set</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Dictionary</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Queue</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Hashset</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Stack</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Delegate</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-Linkedlist</t>
+  </si>
+  <si>
+    <t>Datatype-Composite-PriorityQueue</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Classes</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Objecten</t>
+  </si>
+  <si>
+    <t>Datatype-Codeur-Struct</t>
+  </si>
+  <si>
+    <t>Datatype-Speciaal-Enum</t>
+  </si>
+  <si>
+    <t>Datatype-Speciaal-Null</t>
+  </si>
+  <si>
     <t>Martijn</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Beslissingen-Switch</t>
-  </si>
-  <si>
-    <t>Jasper</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-For</t>
-  </si>
-  <si>
-    <t>Bas</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-While</t>
-  </si>
-  <si>
-    <t>Jorrick</t>
-  </si>
-  <si>
-    <t>X,X,3</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-Recursie</t>
-  </si>
-  <si>
-    <t>Ties</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
-  </si>
-  <si>
-    <t>Jeroen</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Resources-Using</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Asynchroon-Async</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Asynchroon-Await</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
-  </si>
-  <si>
-    <t>Datatype-Declaratie</t>
-  </si>
-  <si>
-    <t>Datatype-Initialisatie</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Integer</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Float</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Double</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Boolean</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Char</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Byte</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Long</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Uint</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Ulong</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-String</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Array</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Tupel</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-List</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Set</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Dictionary</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Queue</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Hashset</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Stack</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Delegate</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-Linkedlist</t>
-  </si>
-  <si>
-    <t>Datatype-Composite-PriorityQueue</t>
-  </si>
-  <si>
-    <t>Datatype-Codeur-Classes</t>
-  </si>
-  <si>
-    <t>Datatype-Codeur-Objecten</t>
-  </si>
-  <si>
-    <t>Datatype-Codeur-Struct</t>
-  </si>
-  <si>
-    <t>Datatype-Speciaal-Enum</t>
-  </si>
-  <si>
-    <t>Datatype-Speciaal-Null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -539,15 +542,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1251,11 +1251,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
@@ -1263,11 +1263,11 @@
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.140625" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="8"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1300,11 +1300,11 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1336,13 +1336,13 @@
       <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A50" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1373,13 +1373,13 @@
       <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1410,13 +1410,13 @@
       <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1431,10 +1431,10 @@
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1447,13 +1447,13 @@
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1468,10 +1468,10 @@
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1484,13 +1484,13 @@
       <c r="K6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1521,13 +1521,13 @@
       <c r="K7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1558,13 +1558,13 @@
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1595,13 +1595,13 @@
       <c r="K9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1632,13 +1632,13 @@
       <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1669,13 +1669,13 @@
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1706,13 +1706,13 @@
       <c r="K12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1743,13 +1743,13 @@
       <c r="K13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1780,13 +1780,13 @@
       <c r="K14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1817,13 +1817,13 @@
       <c r="K15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1854,13 +1854,13 @@
       <c r="K16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1891,13 +1891,13 @@
       <c r="K17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1928,13 +1928,13 @@
       <c r="K18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1965,13 +1965,13 @@
       <c r="K19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2002,13 +2002,13 @@
       <c r="K20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2039,13 +2039,13 @@
       <c r="K21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="L21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2076,13 +2076,13 @@
       <c r="K22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2113,13 +2113,13 @@
       <c r="K23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2150,13 +2150,13 @@
       <c r="K24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2187,13 +2187,13 @@
       <c r="K25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2224,13 +2224,13 @@
       <c r="K26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2261,13 +2261,13 @@
       <c r="K27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="L27" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2298,13 +2298,13 @@
       <c r="K28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2335,13 +2335,13 @@
       <c r="K29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="L29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2372,13 +2372,13 @@
       <c r="K30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2409,13 +2409,13 @@
       <c r="K31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2446,13 +2446,13 @@
       <c r="K32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2483,13 +2483,13 @@
       <c r="K33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="L33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2520,13 +2520,13 @@
       <c r="K34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2557,13 +2557,13 @@
       <c r="K35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="L35" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2594,13 +2594,13 @@
       <c r="K36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -2631,13 +2631,13 @@
       <c r="K37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2668,13 +2668,13 @@
       <c r="K38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -2705,13 +2705,13 @@
       <c r="K39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="L39" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <f>A39+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -2742,13 +2742,13 @@
       <c r="K40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <f>A40+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -2779,13 +2779,13 @@
       <c r="K41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="L41" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <f>A41+1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -2816,13 +2816,13 @@
       <c r="K42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L42" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="L42" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <f>A42+1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -2853,13 +2853,13 @@
       <c r="K43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L43" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="L43" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <f>A43+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -2890,13 +2890,13 @@
       <c r="K44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="L44" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <f>A44+1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -2927,13 +2927,13 @@
       <c r="K45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L45" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="L45" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <f>A45+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -2964,13 +2964,13 @@
       <c r="K46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="L46" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <f>A46+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -3001,13 +3001,13 @@
       <c r="K47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <f>A47+1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -3038,13 +3038,13 @@
       <c r="K48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <f>A48+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -3075,13 +3075,13 @@
       <c r="K49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L49" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <f>A49+1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -3112,11 +3112,11 @@
       <c r="K50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="L50" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="10"/>
       <c r="C51" s="9"/>
@@ -3128,9 +3128,9 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="13"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="10"/>
       <c r="C52" s="9"/>
@@ -3142,9 +3142,9 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="13"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="10"/>
       <c r="C53" s="9"/>
@@ -3156,9 +3156,9 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="13"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
@@ -3170,9 +3170,9 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="13"/>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="10"/>
       <c r="C55" s="9"/>
@@ -3184,9 +3184,9 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="13"/>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
@@ -3198,9 +3198,9 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="13"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="10"/>
       <c r="C57" s="9"/>
@@ -3212,9 +3212,9 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="13"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
@@ -3226,9 +3226,9 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="13"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
@@ -3240,9 +3240,9 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="13"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="10"/>
       <c r="C60" s="9"/>
@@ -3254,9 +3254,9 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="13"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
@@ -3268,9 +3268,9 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="13"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="10"/>
       <c r="C62" s="9"/>
@@ -3282,9 +3282,9 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="13"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="10"/>
       <c r="C63" s="9"/>
@@ -3296,9 +3296,9 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="13"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="10"/>
       <c r="C64" s="9"/>
@@ -3310,9 +3310,9 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="13"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="10"/>
       <c r="C65" s="9"/>
@@ -3324,9 +3324,9 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="13"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="10"/>
       <c r="C66" s="9"/>
@@ -3338,9 +3338,9 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="13"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="10"/>
       <c r="C67" s="9"/>
@@ -3352,9 +3352,9 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="13"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="10"/>
       <c r="C68" s="9"/>
@@ -3366,9 +3366,9 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="13"/>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="10"/>
       <c r="C69" s="9"/>
@@ -3380,9 +3380,9 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="13"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="10"/>
       <c r="C70" s="9"/>
@@ -3394,9 +3394,9 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="13"/>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="10"/>
       <c r="C71" s="9"/>
@@ -3408,9 +3408,9 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="13"/>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="10"/>
       <c r="C72" s="9"/>
@@ -3422,9 +3422,9 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="13"/>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="10"/>
       <c r="C73" s="9"/>
@@ -3436,9 +3436,9 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="13"/>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="10"/>
       <c r="C74" s="9"/>
@@ -3450,9 +3450,9 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="13"/>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -3464,9 +3464,9 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="13"/>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
@@ -3478,9 +3478,9 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="13"/>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="4"/>
       <c r="C77" s="2"/>
@@ -3492,9 +3492,9 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="13"/>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="4"/>
       <c r="C78" s="2"/>
@@ -3506,9 +3506,9 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="13"/>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
@@ -3520,9 +3520,9 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="13"/>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -3534,9 +3534,9 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="13"/>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
@@ -3548,7 +3548,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="13"/>
+      <c r="L81" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3783,6 +3783,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="068e21ff-abb5-4f24-b250-2e5527a1183d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3791,24 +3799,48 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="068e21ff-abb5-4f24-b250-2e5527a1183d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A873F2F7-6FE2-40E9-A4A3-51526AA0CDAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A873F2F7-6FE2-40E9-A4A3-51526AA0CDAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
+    <ds:schemaRef ds:uri="07e6453a-b0b0-4b68-a1c4-ea15f373f18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="068e21ff-abb5-4f24-b250-2e5527a1183d"/>
+    <ds:schemaRef ds:uri="07e6453a-b0b0-4b68-a1c4-ea15f373f18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/.github/dataset.xlsx
+++ b/.github/dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\Leerlijn-Content-SE\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1120CF6-6408-4585-B224-747AB037A68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E33C2D-CADC-4204-9510-8A5CA0A7B23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="215">
   <si>
     <t>TC-1</t>
   </si>
@@ -382,9 +382,6 @@
   </si>
   <si>
     <t>Testrapportage</t>
-  </si>
-  <si>
-    <t>Vrijgaveadvies</t>
   </si>
   <si>
     <t>Toestandsdiagram</t>
@@ -1196,7 +1193,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="86">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1464,26 +1461,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2873,83 +2850,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="B1:Q88" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84">
-  <autoFilter ref="B1:Q88" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="B1:Q87" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82">
+  <autoFilter ref="B1:Q87" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
   <tableColumns count="16">
-    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="73"/>
+    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="72"/>
+    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="71"/>
     <tableColumn id="13" xr3:uid="{41E829DC-30B4-4ED6-A23E-6E86A90CC847}" name="Status"/>
-    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="72"/>
-    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="71"/>
-    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="70"/>
-    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="69"/>
+    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="70"/>
+    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="69"/>
+    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="68"/>
+    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0ADA3302-785A-4FF5-9F05-63AE2FDA43FB}" name="Tabel4" displayName="Tabel4" ref="A1:M25" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0ADA3302-785A-4FF5-9F05-63AE2FDA43FB}" name="Tabel4" displayName="Tabel4" ref="A1:M25" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
   <autoFilter ref="A1:M25" xr:uid="{0ADA3302-785A-4FF5-9F05-63AE2FDA43FB}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{33A30161-A23E-481A-A474-FEC370178E0D}" name="TC-1" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{A765E6F9-736A-40CA-B5F9-5BC3B46176FE}" name="TC-2" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{431178D4-CB18-48BA-B97B-883BA30A9FA6}" name="Proces" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{5D8BDCB3-AF62-410D-BCD9-7529FBB9BBB7}" name="Processtap" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{17101B71-2071-4872-BCB8-53953285475F}" name="Onderwerp" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{6198134A-F0C6-4ECB-A8E9-956960FA372A}" name="PS" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{EB7DBD3A-B2F6-4E6C-8E44-800B7FFBDF34}" name="LT" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{6DFB468C-42AC-4932-9751-5824148384B7}" name="OI" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{7AC5ED05-0A47-4500-9F72-355CAA569399}" name="PI" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{960F9FA7-0252-4FF9-8236-BEF22521DD53}" name="DT" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{53896853-B8EC-4437-A8F9-866346B3373C}" name="Auteur" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{1541B82C-BEB4-4F0F-87EE-C5476ABDDE24}" name="Reviewer" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{C7098195-B41A-40CD-A545-F76D64296E86}" name="Status" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{33A30161-A23E-481A-A474-FEC370178E0D}" name="TC-1" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{A765E6F9-736A-40CA-B5F9-5BC3B46176FE}" name="TC-2" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{431178D4-CB18-48BA-B97B-883BA30A9FA6}" name="Proces" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{5D8BDCB3-AF62-410D-BCD9-7529FBB9BBB7}" name="Processtap" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{17101B71-2071-4872-BCB8-53953285475F}" name="Onderwerp" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{6198134A-F0C6-4ECB-A8E9-956960FA372A}" name="PS" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{EB7DBD3A-B2F6-4E6C-8E44-800B7FFBDF34}" name="LT" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{6DFB468C-42AC-4932-9751-5824148384B7}" name="OI" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{7AC5ED05-0A47-4500-9F72-355CAA569399}" name="PI" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{960F9FA7-0252-4FF9-8236-BEF22521DD53}" name="DT" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{53896853-B8EC-4437-A8F9-866346B3373C}" name="Auteur" dataDxfId="52"/>
+    <tableColumn id="13" xr3:uid="{1541B82C-BEB4-4F0F-87EE-C5476ABDDE24}" name="Reviewer" dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{C7098195-B41A-40CD-A545-F76D64296E86}" name="Status" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="A1:M25" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:E29" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3272,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,7 +3268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>0</v>
@@ -5394,22 +5371,38 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
+        <v>50</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="F50" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
+      <c r="H50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="L50" s="32"/>
-      <c r="M50" s="30" t="s">
+      <c r="M50" s="33" t="s">
         <v>45</v>
       </c>
       <c r="N50" s="32"/>
@@ -5419,48 +5412,52 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>115</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="32"/>
-      <c r="M51" s="33" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="K51" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="N51" s="32"/>
       <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
+      <c r="P51" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="Q51" s="48"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>36</v>
@@ -5475,7 +5472,7 @@
         <v>38</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="32" t="s">
@@ -5493,19 +5490,19 @@
       <c r="L52" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M52" s="35" t="s">
+      <c r="M52" s="36" t="s">
         <v>43</v>
       </c>
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
       <c r="P52" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q52" s="48"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>36</v>
@@ -5538,19 +5535,19 @@
       <c r="L53" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M53" s="36" t="s">
+      <c r="M53" s="35" t="s">
         <v>43</v>
       </c>
       <c r="N53" s="32"/>
       <c r="O53" s="32"/>
       <c r="P53" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q53" s="48"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>36</v>
@@ -5581,21 +5578,21 @@
         <v>17</v>
       </c>
       <c r="L54" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M54" s="35" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="N54" s="32"/>
       <c r="O54" s="32"/>
       <c r="P54" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q54" s="48"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>36</v>
@@ -5626,21 +5623,25 @@
         <v>17</v>
       </c>
       <c r="L55" s="32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M55" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
+      <c r="N55" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>122</v>
+      </c>
       <c r="P55" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q55" s="48"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>36</v>
@@ -5655,41 +5656,41 @@
         <v>38</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G56" s="32"/>
       <c r="H56" s="32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="32" t="s">
+      <c r="J56" s="47" t="s">
         <v>22</v>
       </c>
       <c r="K56" s="32" t="s">
         <v>17</v>
       </c>
       <c r="L56" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="M56" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N56" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O56" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O56" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P56" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q56" s="48"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>36</v>
@@ -5704,7 +5705,7 @@
         <v>38</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="32" t="s">
@@ -5720,25 +5721,25 @@
         <v>17</v>
       </c>
       <c r="L57" s="32" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="M57" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N57" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O57" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O57" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P57" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q57" s="48"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="32" t="s">
         <v>36</v>
@@ -5769,25 +5770,25 @@
         <v>17</v>
       </c>
       <c r="L58" s="32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M58" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N58" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O58" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O58" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P58" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q58" s="48"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="32" t="s">
         <v>36</v>
@@ -5818,25 +5819,25 @@
         <v>17</v>
       </c>
       <c r="L59" s="32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M59" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N59" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O59" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O59" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P59" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q59" s="48"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="32" t="s">
         <v>36</v>
@@ -5867,25 +5868,25 @@
         <v>17</v>
       </c>
       <c r="L60" s="32" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M60" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N60" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O60" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O60" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P60" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q60" s="48"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="32" t="s">
         <v>36</v>
@@ -5916,25 +5917,25 @@
         <v>17</v>
       </c>
       <c r="L61" s="32" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="M61" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N61" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O61" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O61" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P61" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q61" s="48"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>36</v>
@@ -5965,25 +5966,25 @@
         <v>17</v>
       </c>
       <c r="L62" s="32" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="M62" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N62" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O62" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O62" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P62" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q62" s="48"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="32" t="s">
         <v>36</v>
@@ -6014,25 +6015,25 @@
         <v>17</v>
       </c>
       <c r="L63" s="32" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="M63" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N63" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O63" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O63" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P63" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q63" s="48"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>36</v>
@@ -6063,25 +6064,25 @@
         <v>17</v>
       </c>
       <c r="L64" s="32" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M64" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N64" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O64" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O64" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P64" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q64" s="48"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>36</v>
@@ -6096,7 +6097,7 @@
         <v>38</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G65" s="32"/>
       <c r="H65" s="32" t="s">
@@ -6112,25 +6113,21 @@
         <v>17</v>
       </c>
       <c r="L65" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="M65" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M65" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N65" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="O65" s="32" t="s">
-        <v>123</v>
-      </c>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
       <c r="P65" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q65" s="48"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>36</v>
@@ -6149,33 +6146,37 @@
       </c>
       <c r="G66" s="32"/>
       <c r="H66" s="32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I66" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="47" t="s">
+      <c r="J66" s="32" t="s">
         <v>22</v>
       </c>
       <c r="K66" s="32" t="s">
         <v>17</v>
       </c>
       <c r="L66" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="M66" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="M66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O66" s="32" t="s">
+        <v>122</v>
+      </c>
       <c r="P66" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q66" s="48"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>36</v>
@@ -6192,7 +6193,9 @@
       <c r="F67" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="G67" s="32"/>
+      <c r="G67" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="H67" s="32" t="s">
         <v>22</v>
       </c>
@@ -6206,25 +6209,25 @@
         <v>17</v>
       </c>
       <c r="L67" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="M67" s="30" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="M67" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="N67" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="O67" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O67" s="32" t="s">
-        <v>123</v>
-      </c>
       <c r="P67" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q67" s="48"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>36</v>
@@ -6239,7 +6242,7 @@
         <v>38</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>21</v>
@@ -6257,25 +6260,25 @@
         <v>17</v>
       </c>
       <c r="L68" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="M68" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M68" s="36" t="s">
         <v>43</v>
       </c>
       <c r="N68" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P68" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q68" s="48"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="32" t="s">
         <v>36</v>
@@ -6308,25 +6311,25 @@
         <v>17</v>
       </c>
       <c r="L69" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M69" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M69" s="35" t="s">
         <v>43</v>
       </c>
       <c r="N69" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P69" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q69" s="48"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>36</v>
@@ -6359,25 +6362,25 @@
         <v>17</v>
       </c>
       <c r="L70" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="M70" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M70" s="36" t="s">
         <v>43</v>
       </c>
       <c r="N70" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O70" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P70" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q70" s="48"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>36</v>
@@ -6412,23 +6415,19 @@
       <c r="L71" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="M71" s="36" t="s">
+      <c r="M71" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="N71" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="O71" s="32" t="s">
-        <v>123</v>
-      </c>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
       <c r="P71" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q71" s="48"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="32" t="s">
         <v>36</v>
@@ -6443,7 +6442,7 @@
         <v>38</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>21</v>
@@ -6461,21 +6460,25 @@
         <v>17</v>
       </c>
       <c r="L72" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M72" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
+        <v>50</v>
+      </c>
+      <c r="M72" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="O72" s="32" t="s">
+        <v>122</v>
+      </c>
       <c r="P72" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q72" s="48"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="32" t="s">
         <v>36</v>
@@ -6490,7 +6493,7 @@
         <v>38</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>21</v>
@@ -6508,25 +6511,25 @@
         <v>17</v>
       </c>
       <c r="L73" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="M73" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M73" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N73" s="32" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O73" s="32" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="P73" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q73" s="48"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>36</v>
@@ -6541,7 +6544,7 @@
         <v>38</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>21</v>
@@ -6561,23 +6564,23 @@
       <c r="L74" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M74" s="34" t="s">
+      <c r="M74" s="31" t="s">
         <v>24</v>
       </c>
       <c r="N74" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="O74" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="O74" s="32" t="s">
-        <v>145</v>
-      </c>
       <c r="P74" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q74" s="48"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>36</v>
@@ -6612,23 +6615,23 @@
       <c r="L75" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M75" s="31" t="s">
+      <c r="M75" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N75" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="O75" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="O75" s="32" t="s">
-        <v>145</v>
-      </c>
       <c r="P75" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q75" s="48"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>36</v>
@@ -6663,23 +6666,23 @@
       <c r="L76" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M76" s="34" t="s">
+      <c r="M76" s="31" t="s">
         <v>24</v>
       </c>
       <c r="N76" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="O76" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="O76" s="32" t="s">
-        <v>145</v>
-      </c>
       <c r="P76" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q76" s="48"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>36</v>
@@ -6712,25 +6715,25 @@
         <v>17</v>
       </c>
       <c r="L77" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="M77" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="M77" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="N77" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="O77" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="O77" s="32" t="s">
-        <v>145</v>
-      </c>
       <c r="P77" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q77" s="48"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="32" t="s">
         <v>36</v>
@@ -6745,7 +6748,7 @@
         <v>38</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>21</v>
@@ -6763,25 +6766,25 @@
         <v>17</v>
       </c>
       <c r="L78" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M78" s="35" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="M78" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P78" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q78" s="48"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>36</v>
@@ -6798,9 +6801,7 @@
       <c r="F79" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G79" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="G79" s="32"/>
       <c r="H79" s="32" t="s">
         <v>22</v>
       </c>
@@ -6814,25 +6815,25 @@
         <v>17</v>
       </c>
       <c r="L79" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M79" s="40" t="s">
-        <v>57</v>
+        <v>79</v>
+      </c>
+      <c r="M79" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O79" s="32" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="P79" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q79" s="48"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>36</v>
@@ -6847,9 +6848,11 @@
         <v>38</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G80" s="32"/>
+        <v>154</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="H80" s="32" t="s">
         <v>22</v>
       </c>
@@ -6863,25 +6866,25 @@
         <v>17</v>
       </c>
       <c r="L80" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="M80" s="34" t="s">
-        <v>24</v>
+        <v>155</v>
+      </c>
+      <c r="M80" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="N80" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="O80" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="O80" s="32" t="s">
-        <v>154</v>
-      </c>
       <c r="P80" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q80" s="48"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>36</v>
@@ -6896,11 +6899,9 @@
         <v>38</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G81" s="32" t="s">
-        <v>21</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G81" s="32"/>
       <c r="H81" s="32" t="s">
         <v>22</v>
       </c>
@@ -6914,25 +6915,25 @@
         <v>17</v>
       </c>
       <c r="L81" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="M81" s="30" t="s">
-        <v>45</v>
+        <v>79</v>
+      </c>
+      <c r="M81" s="41" t="s">
+        <v>24</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O81" s="32" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P81" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q81" s="48"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>36</v>
@@ -6947,9 +6948,11 @@
         <v>38</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="32"/>
+        <v>160</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="H82" s="32" t="s">
         <v>22</v>
       </c>
@@ -6965,23 +6968,23 @@
       <c r="L82" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M82" s="41" t="s">
+      <c r="M82" s="40" t="s">
         <v>24</v>
       </c>
       <c r="N82" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="O82" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="O82" s="32" t="s">
-        <v>160</v>
-      </c>
       <c r="P82" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q82" s="48"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>36</v>
@@ -6996,7 +6999,7 @@
         <v>38</v>
       </c>
       <c r="F83" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>21</v>
@@ -7016,23 +7019,23 @@
       <c r="L83" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M83" s="40" t="s">
+      <c r="M83" s="41" t="s">
         <v>24</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P83" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q83" s="48"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>36</v>
@@ -7047,7 +7050,7 @@
         <v>38</v>
       </c>
       <c r="F84" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>21</v>
@@ -7067,23 +7070,23 @@
       <c r="L84" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M84" s="41" t="s">
-        <v>24</v>
+      <c r="M84" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="N84" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O84" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="O84" s="32" t="s">
-        <v>165</v>
-      </c>
       <c r="P84" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q84" s="48"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="32" t="s">
         <v>36</v>
@@ -7118,23 +7121,23 @@
       <c r="L85" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M85" s="30" t="s">
-        <v>45</v>
+      <c r="M85" s="41" t="s">
+        <v>24</v>
       </c>
       <c r="N85" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O85" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="O85" s="32" t="s">
-        <v>165</v>
-      </c>
       <c r="P85" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q85" s="48"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>36</v>
@@ -7169,122 +7172,71 @@
       <c r="L86" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M86" s="41" t="s">
-        <v>24</v>
+      <c r="M86" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="N86" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O86" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="O86" s="32" t="s">
-        <v>165</v>
-      </c>
       <c r="P86" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q86" s="48"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="32" t="s">
+      <c r="C87" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F87" s="32" t="s">
+      <c r="F87" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="G87" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="G87" s="49"/>
       <c r="H87" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I87" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L87" s="32" t="s">
+      <c r="I87" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="M87" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="N87" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="O87" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="P87" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q87" s="48"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" s="49" t="s">
+      <c r="M87" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N87" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="G88" s="49"/>
-      <c r="H88" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="L88" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="M88" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N88" s="49" t="s">
+      <c r="O87" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="O88" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="P88" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q88" s="50"/>
+      <c r="P87" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q87" s="50"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:K66 I67:K88 H89:K1048576">
+  <conditionalFormatting sqref="I66:K87 H88:K1048576 H1:K65">
     <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
@@ -7306,7 +7258,7 @@
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M88">
+  <conditionalFormatting sqref="M2:M87">
     <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
@@ -7331,13 +7283,13 @@
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>M1 M89:M1048576</xm:sqref>
+          <xm:sqref>M1 M88:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A99B45A-3469-41B9-95C3-9470E9A47E8F}">
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M88</xm:sqref>
+          <xm:sqref>M2:M87</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2D9F141-DCFD-4E17-B98A-F2E3B12F7BFB}">
           <x14:formula1>
@@ -7416,7 +7368,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -7927,7 +7879,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -8400,10 +8352,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -8412,7 +8364,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8420,7 +8372,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>88</v>
@@ -8437,16 +8389,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8454,16 +8406,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8471,7 +8423,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -8488,7 +8440,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -8505,16 +8457,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8522,16 +8474,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8539,7 +8491,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>88</v>
@@ -8556,16 +8508,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8573,16 +8525,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8590,7 +8542,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>37</v>
@@ -8607,16 +8559,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8624,16 +8576,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8641,7 +8593,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>37</v>
@@ -8658,7 +8610,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>37</v>
@@ -8675,16 +8627,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8692,16 +8644,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8709,16 +8661,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8726,16 +8678,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8743,16 +8695,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8760,7 +8712,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>72</v>
@@ -8777,7 +8729,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>96</v>
@@ -8794,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8811,7 +8763,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>96</v>
@@ -8828,7 +8780,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>96</v>
@@ -8845,16 +8797,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8862,7 +8814,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>96</v>
@@ -8879,7 +8831,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -8912,7 +8864,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -8922,7 +8874,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -8951,6 +8903,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8145e89f48f7544065c1631cfb4174b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b179456a9f02424ae4d9487a76703b" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -9185,27 +9157,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{869E5174-4466-4E4F-B92A-08A1A2EBCF8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9224,31 +9201,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e36377b7-70c4-4493-a338-095918d327e9}" enabled="0" method="" siteId="{e36377b7-70c4-4493-a338-095918d327e9}" removed="1"/>
